--- a/medicine/Mort/Liste_de_personnalités_au_columbarium_du_Père-Lachaise/Liste_de_personnalités_au_columbarium_du_Père-Lachaise.xlsx
+++ b/medicine/Mort/Liste_de_personnalités_au_columbarium_du_Père-Lachaise/Liste_de_personnalités_au_columbarium_du_Père-Lachaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  cimetière du Père-Lachaise de Paris est le lieu d'incinération de nombreuses personnalités. Les cendres peuvent être placées dans une case du columbarium du Père-Lachaise, dans la 87e division du cimetière - dont voici une liste non exhaustive -, être dispersées sur le « jardin du souvenir », placées dans un caveau, ou remises à la famille.
 Pour les personnes enterrées, voir l'article Liste de personnalités inhumées au cimetière du Père-Lachaise.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sommaire :
@@ -579,7 +593,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,7 +611,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sommaire :
@@ -637,7 +653,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -655,7 +671,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -694,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -712,7 +730,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -751,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -769,7 +789,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -808,7 +830,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -826,7 +848,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -865,7 +889,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -883,7 +907,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -922,7 +948,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -940,7 +966,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -979,7 +1007,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -997,7 +1025,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1036,7 +1066,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1054,7 +1084,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1093,7 +1125,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1111,7 +1143,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1150,7 +1184,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1168,7 +1202,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1207,7 +1243,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1225,7 +1261,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1264,7 +1302,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1282,7 +1320,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1321,7 +1361,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1339,7 +1379,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1378,7 +1420,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1396,7 +1438,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1435,7 +1479,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1453,7 +1497,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1492,7 +1538,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1510,7 +1556,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1549,7 +1597,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1567,7 +1615,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1606,7 +1656,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1624,7 +1674,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1663,7 +1715,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1681,7 +1733,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1720,7 +1774,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1738,7 +1792,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1777,7 +1833,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1795,7 +1851,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -1808,7 +1866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_au_columbarium_du_P%C3%A8re-Lachaise</t>
+          <t>Liste_de_personnalités_au_columbarium_du_Père-Lachaise</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1826,7 +1884,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Liste de personnalités enterrées au cimetière du Père-Lachaise</t>
         </is>
